--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124111a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124111a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último  roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -488,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,28 +532,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>2.148485056207373</v>
+      </c>
+      <c r="C5">
+        <v>5.500945396712375</v>
+      </c>
+      <c r="D5">
+        <v>4.062499514580669</v>
+      </c>
+      <c r="E5">
+        <v>3.369904445920921</v>
+      </c>
+      <c r="F5">
+        <v>4.316554693728479</v>
+      </c>
+      <c r="G5">
+        <v>6.489178108059269</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.148485056207373</v>
+        <v>2.246604638280759</v>
       </c>
       <c r="C6">
-        <v>5.500945396712375</v>
+        <v>6.512293299460294</v>
       </c>
       <c r="D6">
-        <v>4.062499514580669</v>
+        <v>4.293379961483282</v>
       </c>
       <c r="E6">
-        <v>3.369904445920921</v>
+        <v>3.449956194610034</v>
       </c>
       <c r="F6">
-        <v>4.316554693728479</v>
+        <v>4.646356895605987</v>
       </c>
       <c r="G6">
-        <v>6.489178108059269</v>
+        <v>6.69280426238791</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -582,50 +579,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2.246604638280759</v>
+        <v>2.410011520357969</v>
       </c>
       <c r="C7">
-        <v>6.512293299460294</v>
+        <v>6.20035112319065</v>
       </c>
       <c r="D7">
-        <v>4.293379961483282</v>
+        <v>4.519133815577279</v>
       </c>
       <c r="E7">
-        <v>3.449956194610034</v>
+        <v>3.90751020368082</v>
       </c>
       <c r="F7">
-        <v>4.646356895605987</v>
+        <v>5.279137080138133</v>
       </c>
       <c r="G7">
-        <v>6.69280426238791</v>
+        <v>7.379686536252617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>2.207444921754221</v>
+      </c>
+      <c r="C8">
+        <v>6.320406042925827</v>
+      </c>
+      <c r="D8">
+        <v>3.930265705497907</v>
+      </c>
+      <c r="E8">
+        <v>3.374775361402147</v>
+      </c>
+      <c r="F8">
+        <v>4.006496513944344</v>
+      </c>
+      <c r="G8">
+        <v>6.128858987468364</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.410011520357969</v>
+        <v>4.523799365849976</v>
       </c>
       <c r="C9">
-        <v>6.20035112319065</v>
+        <v>12.45164115727716</v>
       </c>
       <c r="D9">
-        <v>4.519133815577279</v>
+        <v>9.741404249419515</v>
       </c>
       <c r="E9">
-        <v>3.90751020368082</v>
+        <v>7.300989773956179</v>
       </c>
       <c r="F9">
-        <v>5.279137080138133</v>
+        <v>9.641747913994219</v>
       </c>
       <c r="G9">
-        <v>7.379686536252617</v>
+        <v>13.33718711063287</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -633,22 +648,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.207444921754221</v>
+        <v>2.342231361803937</v>
       </c>
       <c r="C10">
-        <v>6.320406042925827</v>
+        <v>6.941155768695073</v>
       </c>
       <c r="D10">
-        <v>3.930265705497907</v>
+        <v>4.172948205474023</v>
       </c>
       <c r="E10">
-        <v>3.374775361402147</v>
+        <v>3.554926986234545</v>
       </c>
       <c r="F10">
-        <v>4.006496513944344</v>
+        <v>4.267550829855386</v>
       </c>
       <c r="G10">
-        <v>6.128858987468364</v>
+        <v>6.853091156409998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -656,22 +671,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>4.523799365849976</v>
+        <v>2.489808878950468</v>
       </c>
       <c r="C11">
-        <v>12.45164115727716</v>
+        <v>7.069529944137108</v>
       </c>
       <c r="D11">
-        <v>9.741404249419515</v>
+        <v>4.583295985963236</v>
       </c>
       <c r="E11">
-        <v>7.300989773956179</v>
+        <v>3.855719278714546</v>
       </c>
       <c r="F11">
-        <v>9.641747913994219</v>
+        <v>4.973267831114137</v>
       </c>
       <c r="G11">
-        <v>13.33718711063287</v>
+        <v>7.090546631838575</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -679,50 +694,68 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.342231361803937</v>
+        <v>3.11537765208668</v>
       </c>
       <c r="C12">
-        <v>6.941155768695073</v>
+        <v>9.491555575239349</v>
       </c>
       <c r="D12">
-        <v>4.172948205474023</v>
+        <v>5.900108748722996</v>
       </c>
       <c r="E12">
-        <v>3.554926986234545</v>
+        <v>4.609657977245192</v>
       </c>
       <c r="F12">
-        <v>4.267550829855386</v>
+        <v>6.418978742744363</v>
       </c>
       <c r="G12">
-        <v>6.853091156409998</v>
+        <v>9.856806715735278</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>4.897335909917461</v>
+      </c>
+      <c r="C13">
+        <v>13.68229313044653</v>
+      </c>
+      <c r="D13">
+        <v>10.21864017305714</v>
+      </c>
+      <c r="E13">
+        <v>7.671543574097118</v>
+      </c>
+      <c r="F13">
+        <v>10.9687418071531</v>
+      </c>
+      <c r="G13">
+        <v>15.04223777606846</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2.489808878950468</v>
+        <v>3.75135636244377</v>
       </c>
       <c r="C14">
-        <v>7.069529944137108</v>
+        <v>10.77363026299319</v>
       </c>
       <c r="D14">
-        <v>4.583295985963236</v>
+        <v>7.713535655711784</v>
       </c>
       <c r="E14">
-        <v>3.855719278714546</v>
+        <v>6.049201827631327</v>
       </c>
       <c r="F14">
-        <v>4.973267831114137</v>
+        <v>8.406597830846389</v>
       </c>
       <c r="G14">
-        <v>7.090546631838575</v>
+        <v>13.54380191463135</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -730,22 +763,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>3.11537765208668</v>
+        <v>3.492765437722495</v>
       </c>
       <c r="C15">
-        <v>9.491555575239349</v>
+        <v>9.023641929175019</v>
       </c>
       <c r="D15">
-        <v>5.900108748722996</v>
+        <v>7.576991901115373</v>
       </c>
       <c r="E15">
-        <v>4.609657977245192</v>
+        <v>5.848979427964535</v>
       </c>
       <c r="F15">
-        <v>6.418978742744363</v>
+        <v>7.521709898560998</v>
       </c>
       <c r="G15">
-        <v>9.856806715735278</v>
+        <v>10.9916391029721</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -753,22 +786,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.897335909917461</v>
+        <v>5.992824618173739</v>
       </c>
       <c r="C16">
-        <v>13.68229313044653</v>
+        <v>14.05986801108906</v>
       </c>
       <c r="D16">
-        <v>10.21864017305714</v>
+        <v>14.53599954663396</v>
       </c>
       <c r="E16">
-        <v>7.671543574097118</v>
+        <v>10.47862816011017</v>
       </c>
       <c r="F16">
-        <v>10.9687418071531</v>
+        <v>11.67351828976475</v>
       </c>
       <c r="G16">
-        <v>15.04223777606846</v>
+        <v>18.53641043928772</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -776,22 +809,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>3.75135636244377</v>
+        <v>2.86284954656396</v>
       </c>
       <c r="C17">
-        <v>10.77363026299319</v>
+        <v>6.966942495310512</v>
       </c>
       <c r="D17">
-        <v>7.713535655711784</v>
+        <v>5.348465927152138</v>
       </c>
       <c r="E17">
-        <v>6.049201827631327</v>
+        <v>4.722076649704811</v>
       </c>
       <c r="F17">
-        <v>8.406597830846389</v>
+        <v>5.589935545417474</v>
       </c>
       <c r="G17">
-        <v>13.54380191463135</v>
+        <v>8.662018914291879</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -799,50 +832,68 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3.492765437722495</v>
+        <v>4.312140611912221</v>
       </c>
       <c r="C18">
-        <v>9.023641929175019</v>
+        <v>12.65465394317116</v>
       </c>
       <c r="D18">
-        <v>7.576991901115373</v>
+        <v>8.615885359842943</v>
       </c>
       <c r="E18">
-        <v>5.848979427964535</v>
+        <v>6.911542228556493</v>
       </c>
       <c r="F18">
-        <v>7.521709898560998</v>
+        <v>8.799290883559511</v>
       </c>
       <c r="G18">
-        <v>10.9916391029721</v>
+        <v>14.05663228063865</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>3.965028513655128</v>
+      </c>
+      <c r="C19">
+        <v>12.44262444416487</v>
+      </c>
+      <c r="D19">
+        <v>7.691743086267375</v>
+      </c>
+      <c r="E19">
+        <v>6.058636834736672</v>
+      </c>
+      <c r="F19">
+        <v>8.043268330581503</v>
+      </c>
+      <c r="G19">
+        <v>12.86974174346019</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>5.992824618173739</v>
+        <v>2.781551050655457</v>
       </c>
       <c r="C20">
-        <v>14.05986801108906</v>
+        <v>8.696504631599952</v>
       </c>
       <c r="D20">
-        <v>14.53599954663396</v>
+        <v>5.23958810803444</v>
       </c>
       <c r="E20">
-        <v>10.47862816011017</v>
+        <v>4.273817251246634</v>
       </c>
       <c r="F20">
-        <v>11.67351828976475</v>
+        <v>6.122956970744342</v>
       </c>
       <c r="G20">
-        <v>18.53641043928772</v>
+        <v>8.671252250138744</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -850,22 +901,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.86284954656396</v>
+        <v>5.63097582778132</v>
       </c>
       <c r="C21">
-        <v>6.966942495310512</v>
+        <v>15.92209395354522</v>
       </c>
       <c r="D21">
-        <v>5.348465927152138</v>
+        <v>10.24566261000354</v>
       </c>
       <c r="E21">
-        <v>4.722076649704811</v>
+        <v>8.980420820903943</v>
       </c>
       <c r="F21">
-        <v>5.589935545417474</v>
+        <v>13.79012311583905</v>
       </c>
       <c r="G21">
-        <v>8.662018914291879</v>
+        <v>17.73237908390983</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -873,22 +924,22 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>4.312140611912221</v>
+        <v>5.600494880419577</v>
       </c>
       <c r="C22">
-        <v>12.65465394317116</v>
+        <v>18.2261460459352</v>
       </c>
       <c r="D22">
-        <v>8.615885359842943</v>
+        <v>11.27417281690673</v>
       </c>
       <c r="E22">
-        <v>6.911542228556493</v>
+        <v>8.178090604938047</v>
       </c>
       <c r="F22">
-        <v>8.799290883559511</v>
+        <v>14.38998415418922</v>
       </c>
       <c r="G22">
-        <v>14.05663228063865</v>
+        <v>15.07121310322454</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -896,22 +947,22 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>3.965028513655128</v>
+        <v>1.770086049007483</v>
       </c>
       <c r="C23">
-        <v>12.44262444416487</v>
+        <v>4.66235522319434</v>
       </c>
       <c r="D23">
-        <v>7.691743086267375</v>
+        <v>3.1520874133222</v>
       </c>
       <c r="E23">
-        <v>6.058636834736672</v>
+        <v>2.706366944871462</v>
       </c>
       <c r="F23">
-        <v>8.043268330581503</v>
+        <v>3.268325567848313</v>
       </c>
       <c r="G23">
-        <v>12.86974174346019</v>
+        <v>4.904971262123441</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -919,22 +970,22 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2.781551050655457</v>
+        <v>5.183113739227279</v>
       </c>
       <c r="C24">
-        <v>8.696504631599952</v>
+        <v>12.74197322851338</v>
       </c>
       <c r="D24">
-        <v>5.23958810803444</v>
+        <v>11.41066805453303</v>
       </c>
       <c r="E24">
-        <v>4.273817251246634</v>
+        <v>7.426429400423485</v>
       </c>
       <c r="F24">
-        <v>6.122956970744342</v>
+        <v>10.12120809005567</v>
       </c>
       <c r="G24">
-        <v>8.671252250138744</v>
+        <v>16.35454848305711</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -942,22 +993,22 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>5.63097582778132</v>
+        <v>3.911848496063195</v>
       </c>
       <c r="C25">
-        <v>15.92209395354522</v>
+        <v>9.963974783824046</v>
       </c>
       <c r="D25">
-        <v>10.24566261000354</v>
+        <v>7.561372553219599</v>
       </c>
       <c r="E25">
-        <v>8.980420820903943</v>
+        <v>6.139013498698523</v>
       </c>
       <c r="F25">
-        <v>13.79012311583905</v>
+        <v>6.600553277958901</v>
       </c>
       <c r="G25">
-        <v>17.73237908390983</v>
+        <v>11.59915714430022</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -965,175 +1016,68 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>5.600494880419577</v>
+        <v>2.972072447756765</v>
       </c>
       <c r="C26">
-        <v>18.2261460459352</v>
+        <v>7.800390397808804</v>
       </c>
       <c r="D26">
-        <v>11.27417281690673</v>
+        <v>5.520412223032681</v>
       </c>
       <c r="E26">
-        <v>8.178090604938047</v>
+        <v>5.007070209176617</v>
       </c>
       <c r="F26">
-        <v>14.38998415418922</v>
+        <v>5.607964569382331</v>
       </c>
       <c r="G26">
-        <v>15.07121310322454</v>
+        <v>9.396795663220367</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>2.990157021019532</v>
+      </c>
+      <c r="C27">
+        <v>8.63163644506214</v>
+      </c>
+      <c r="D27">
+        <v>5.391942611949204</v>
+      </c>
+      <c r="E27">
+        <v>4.83044321707342</v>
+      </c>
+      <c r="F27">
+        <v>6.603859033254541</v>
+      </c>
+      <c r="G27">
+        <v>8.933911077141719</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.770086049007483</v>
+        <v>3.759762833190811</v>
       </c>
       <c r="C28">
-        <v>4.66235522319434</v>
+        <v>9.62139649937787</v>
       </c>
       <c r="D28">
-        <v>3.1520874133222</v>
+        <v>6.769845123096531</v>
       </c>
       <c r="E28">
-        <v>2.706366944871462</v>
+        <v>5.755003492269656</v>
       </c>
       <c r="F28">
-        <v>3.268325567848313</v>
+        <v>9.228611485320036</v>
       </c>
       <c r="G28">
-        <v>4.904971262123441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>5.183113739227279</v>
-      </c>
-      <c r="C29">
-        <v>12.74197322851338</v>
-      </c>
-      <c r="D29">
-        <v>11.41066805453303</v>
-      </c>
-      <c r="E29">
-        <v>7.426429400423485</v>
-      </c>
-      <c r="F29">
-        <v>10.12120809005567</v>
-      </c>
-      <c r="G29">
-        <v>16.35454848305711</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>3.911848496063195</v>
-      </c>
-      <c r="C30">
-        <v>9.963974783824046</v>
-      </c>
-      <c r="D30">
-        <v>7.561372553219599</v>
-      </c>
-      <c r="E30">
-        <v>6.139013498698523</v>
-      </c>
-      <c r="F30">
-        <v>6.600553277958901</v>
-      </c>
-      <c r="G30">
-        <v>11.59915714430022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>2.972072447756765</v>
-      </c>
-      <c r="C31">
-        <v>7.800390397808804</v>
-      </c>
-      <c r="D31">
-        <v>5.520412223032681</v>
-      </c>
-      <c r="E31">
-        <v>5.007070209176617</v>
-      </c>
-      <c r="F31">
-        <v>5.607964569382331</v>
-      </c>
-      <c r="G31">
-        <v>9.396795663220367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>2.990157021019532</v>
-      </c>
-      <c r="C32">
-        <v>8.63163644506214</v>
-      </c>
-      <c r="D32">
-        <v>5.391942611949204</v>
-      </c>
-      <c r="E32">
-        <v>4.83044321707342</v>
-      </c>
-      <c r="F32">
-        <v>6.603859033254541</v>
-      </c>
-      <c r="G32">
-        <v>8.933911077141719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>3.759762833190811</v>
-      </c>
-      <c r="C33">
-        <v>9.62139649937787</v>
-      </c>
-      <c r="D33">
-        <v>6.769845123096531</v>
-      </c>
-      <c r="E33">
-        <v>5.755003492269656</v>
-      </c>
-      <c r="F33">
-        <v>9.228611485320036</v>
-      </c>
-      <c r="G33">
         <v>10.27466643039119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
